--- a/assets/format/FormatDataSupplier.xlsx
+++ b/assets/format/FormatDataSupplier.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\purch_pkl\assets\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\purch_pkl\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7FBC52-8AE1-41E0-B3D5-F07D8E7839EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="19125" windowHeight="4935" xr2:uid="{988C2D13-05F1-424C-A6A3-A0FD4B6DA8E8}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="19125" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>PPN</t>
   </si>
@@ -75,12 +74,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>nomer_rek</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>atas_nama</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,10 +433,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2AB54-27FC-4431-A8D8-61B2184711C1}">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -440,7 +450,7 @@
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -466,24 +476,33 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/assets/format/FormatDataSupplier.xlsx
+++ b/assets/format/FormatDataSupplier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\purch_pkl\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57A6459-43D6-46B7-9322-18C558D1A668}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="19125" windowHeight="4935"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>PPN</t>
   </si>
@@ -83,12 +79,15 @@
   </si>
   <si>
     <t>atas_nama</t>
+  </si>
+  <si>
+    <t>PPH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,11 +432,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +449,7 @@
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -494,15 +493,18 @@
         <v>0</v>
       </c>
       <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
     </row>
